--- a/Requisitos funcionais e não funcionais.xlsx
+++ b/Requisitos funcionais e não funcionais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Monografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC87A2A-1D5F-46EB-AE3C-28D89AC29430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D1FBB-CF66-449E-838D-9004579C3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="585" yWindow="1665" windowWidth="38400" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>RF5 - O sistema deve permitir o registro de alunos e instrutores.</t>
   </si>
   <si>
-    <t>RF1 - O sistema deve permitir que um instrutor crie, edite e delete um treino para um aluno.</t>
-  </si>
-  <si>
     <t>Requisitos Não Funcionais</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>RNF6 - A aplicação deve fazer uso da tecnologia PWA.</t>
+  </si>
+  <si>
+    <t>RF1 - O sistema deve permitir que um instrutor crie, edite e delete um treino.</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="K28" sqref="K28:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +789,7 @@
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
@@ -825,19 +825,19 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="13" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -963,13 +963,13 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1095,13 +1095,13 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1227,13 +1227,13 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1359,13 +1359,13 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1485,19 +1485,19 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1617,13 +1617,13 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1747,13 +1747,13 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1855,7 +1855,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>

--- a/Requisitos funcionais e não funcionais.xlsx
+++ b/Requisitos funcionais e não funcionais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Monografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D1FBB-CF66-449E-838D-9004579C3615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F85F57-364B-42BC-921E-25BD01E5608D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1665" windowWidth="38400" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="38400" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Requisitos Funcionais</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>RF14 - As funcionalidades da aplicação só podem ser utilizadas caso o usuário esteja autenticado.</t>
-  </si>
-  <si>
-    <t>RNF6 - A aplicação deve fazer uso da tecnologia PWA.</t>
   </si>
   <si>
     <t>RF1 - O sistema deve permitir que um instrutor crie, edite e delete um treino.</t>
@@ -327,17 +324,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,20 +353,29 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,10 +392,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:N30"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="Y44" sqref="Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,40 +744,40 @@
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
@@ -778,44 +786,42 @@
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="9"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="11"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
@@ -824,46 +830,44 @@
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="13" t="s">
-        <v>24</v>
+      <c r="C4" s="18" t="s">
+        <v>23</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
@@ -872,40 +876,40 @@
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
@@ -914,40 +918,40 @@
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
@@ -956,46 +960,44 @@
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
@@ -1004,40 +1006,40 @@
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
@@ -1046,40 +1048,40 @@
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
@@ -1088,46 +1090,44 @@
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
@@ -1136,40 +1136,40 @@
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
@@ -1178,40 +1178,40 @@
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
@@ -1220,46 +1220,44 @@
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
@@ -1268,40 +1266,40 @@
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -1310,40 +1308,40 @@
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
@@ -1352,46 +1350,44 @@
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -1400,40 +1396,40 @@
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
@@ -1442,40 +1438,40 @@
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
@@ -1484,46 +1480,44 @@
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
@@ -1532,40 +1526,40 @@
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
@@ -1574,40 +1568,40 @@
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
@@ -1616,26 +1610,26 @@
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1662,22 +1656,22 @@
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="1"/>
@@ -1704,22 +1698,22 @@
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="1"/>
@@ -1746,26 +1740,26 @@
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="1"/>
@@ -1792,22 +1786,22 @@
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="W26" s="2"/>
@@ -1832,90 +1826,90 @@
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
@@ -2024,16 +2018,18 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="B36" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2041,14 +2037,16 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="B37" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2056,14 +2054,14 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2071,36 +2069,454 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="B40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="85">
+    <mergeCell ref="B61:E63"/>
+    <mergeCell ref="F61:I63"/>
+    <mergeCell ref="B52:E54"/>
+    <mergeCell ref="F52:I54"/>
+    <mergeCell ref="B55:E57"/>
+    <mergeCell ref="F55:I57"/>
+    <mergeCell ref="B58:E60"/>
+    <mergeCell ref="F58:I60"/>
+    <mergeCell ref="B43:E45"/>
+    <mergeCell ref="F43:I45"/>
+    <mergeCell ref="B46:E48"/>
+    <mergeCell ref="F46:I48"/>
+    <mergeCell ref="B49:E51"/>
+    <mergeCell ref="F49:I51"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:E39"/>
+    <mergeCell ref="F37:I39"/>
+    <mergeCell ref="B40:E42"/>
+    <mergeCell ref="F40:I42"/>
+    <mergeCell ref="AC7:AF9"/>
+    <mergeCell ref="AG7:AJ9"/>
+    <mergeCell ref="AC10:AF12"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="G19:J21"/>
+    <mergeCell ref="C7:F9"/>
+    <mergeCell ref="G7:J9"/>
+    <mergeCell ref="C10:F12"/>
+    <mergeCell ref="G10:J12"/>
+    <mergeCell ref="C13:F15"/>
+    <mergeCell ref="G13:J15"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:J18"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="O19:R21"/>
+    <mergeCell ref="U10:X12"/>
+    <mergeCell ref="Y10:AB12"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="K4:N6"/>
+    <mergeCell ref="O4:R6"/>
+    <mergeCell ref="K7:N9"/>
+    <mergeCell ref="O7:R9"/>
+    <mergeCell ref="U7:X9"/>
+    <mergeCell ref="Y7:AB9"/>
+    <mergeCell ref="K10:N12"/>
+    <mergeCell ref="O10:R12"/>
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="O13:R15"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="O16:R18"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="U2:AJ2"/>
+    <mergeCell ref="U3:AB3"/>
+    <mergeCell ref="AC3:AJ3"/>
+    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="Y4:AB6"/>
+    <mergeCell ref="AC4:AF6"/>
+    <mergeCell ref="AG4:AJ6"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:F6"/>
+    <mergeCell ref="G4:J6"/>
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="U13:X15"/>
+    <mergeCell ref="Y13:AB15"/>
+    <mergeCell ref="AC13:AF15"/>
+    <mergeCell ref="AG13:AJ15"/>
+    <mergeCell ref="U16:X18"/>
+    <mergeCell ref="Y16:AB18"/>
+    <mergeCell ref="AC16:AF18"/>
+    <mergeCell ref="AG16:AJ18"/>
+    <mergeCell ref="U19:X21"/>
+    <mergeCell ref="Y19:AB21"/>
+    <mergeCell ref="AC19:AF21"/>
+    <mergeCell ref="AG19:AJ21"/>
     <mergeCell ref="C28:F30"/>
     <mergeCell ref="G28:J30"/>
     <mergeCell ref="K28:N30"/>
@@ -2113,60 +2529,6 @@
     <mergeCell ref="G25:J27"/>
     <mergeCell ref="K25:N27"/>
     <mergeCell ref="O25:R27"/>
-    <mergeCell ref="U16:X18"/>
-    <mergeCell ref="Y16:AB18"/>
-    <mergeCell ref="AC16:AF18"/>
-    <mergeCell ref="AG16:AJ18"/>
-    <mergeCell ref="U19:X21"/>
-    <mergeCell ref="Y19:AB21"/>
-    <mergeCell ref="AC19:AF21"/>
-    <mergeCell ref="AG19:AJ21"/>
-    <mergeCell ref="AG10:AJ12"/>
-    <mergeCell ref="U13:X15"/>
-    <mergeCell ref="Y13:AB15"/>
-    <mergeCell ref="AC13:AF15"/>
-    <mergeCell ref="AG13:AJ15"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="U2:AJ2"/>
-    <mergeCell ref="U3:AB3"/>
-    <mergeCell ref="AC3:AJ3"/>
-    <mergeCell ref="U4:X6"/>
-    <mergeCell ref="Y4:AB6"/>
-    <mergeCell ref="AC4:AF6"/>
-    <mergeCell ref="AG4:AJ6"/>
-    <mergeCell ref="K10:N12"/>
-    <mergeCell ref="O10:R12"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="O13:R15"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="O16:R18"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="O19:R21"/>
-    <mergeCell ref="U10:X12"/>
-    <mergeCell ref="Y10:AB12"/>
-    <mergeCell ref="K3:R3"/>
-    <mergeCell ref="K4:N6"/>
-    <mergeCell ref="O4:R6"/>
-    <mergeCell ref="K7:N9"/>
-    <mergeCell ref="O7:R9"/>
-    <mergeCell ref="U7:X9"/>
-    <mergeCell ref="Y7:AB9"/>
-    <mergeCell ref="AC7:AF9"/>
-    <mergeCell ref="AG7:AJ9"/>
-    <mergeCell ref="AC10:AF12"/>
-    <mergeCell ref="C19:F21"/>
-    <mergeCell ref="G19:J21"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:F6"/>
-    <mergeCell ref="G4:J6"/>
-    <mergeCell ref="C7:F9"/>
-    <mergeCell ref="G7:J9"/>
-    <mergeCell ref="C10:F12"/>
-    <mergeCell ref="G10:J12"/>
-    <mergeCell ref="C13:F15"/>
-    <mergeCell ref="G13:J15"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Requisitos funcionais e não funcionais.xlsx
+++ b/Requisitos funcionais e não funcionais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Monografia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F85F57-364B-42BC-921E-25BD01E5608D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D9CAEF-D86D-475C-B995-DA330D13BBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="38400" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +215,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -238,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -309,77 +320,236 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -693,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="Y44" sqref="Y44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,40 +914,40 @@
     <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
@@ -786,42 +956,42 @@
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="11"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="15"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
@@ -830,26 +1000,26 @@
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="5"/>
@@ -876,22 +1046,22 @@
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="5"/>
@@ -918,22 +1088,22 @@
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="5"/>
@@ -960,26 +1130,26 @@
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="5"/>
@@ -1006,22 +1176,22 @@
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="5"/>
@@ -1048,22 +1218,22 @@
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="5"/>
@@ -1090,26 +1260,26 @@
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="5"/>
@@ -1136,22 +1306,22 @@
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="5"/>
@@ -1178,22 +1348,22 @@
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="5"/>
@@ -1220,26 +1390,26 @@
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="5"/>
@@ -1266,22 +1436,22 @@
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="5"/>
@@ -1308,22 +1478,22 @@
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="5"/>
@@ -1350,26 +1520,26 @@
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="5"/>
@@ -1396,22 +1566,22 @@
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="5"/>
@@ -1438,22 +1608,22 @@
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="5"/>
@@ -1480,29 +1650,29 @@
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="6"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -1510,7 +1680,7 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="6"/>
+      <c r="AC19" s="16"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
@@ -1526,22 +1696,22 @@
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="5"/>
@@ -1568,22 +1738,22 @@
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="5"/>
@@ -1610,26 +1780,26 @@
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1656,22 +1826,22 @@
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="1"/>
@@ -1698,22 +1868,22 @@
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="1"/>
@@ -1740,26 +1910,26 @@
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="1"/>
@@ -1786,22 +1956,22 @@
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="W26" s="2"/>
@@ -1826,90 +1996,90 @@
     <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
@@ -2020,33 +2190,33 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2054,14 +2224,14 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2069,31 +2239,31 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="29"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="1"/>
@@ -2101,306 +2271,306 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="38"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="38"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="44"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
@@ -2443,26 +2613,57 @@
       <c r="J66" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="B61:E63"/>
-    <mergeCell ref="F61:I63"/>
-    <mergeCell ref="B52:E54"/>
-    <mergeCell ref="F52:I54"/>
-    <mergeCell ref="B55:E57"/>
-    <mergeCell ref="F55:I57"/>
-    <mergeCell ref="B58:E60"/>
-    <mergeCell ref="F58:I60"/>
-    <mergeCell ref="B43:E45"/>
-    <mergeCell ref="F43:I45"/>
-    <mergeCell ref="B46:E48"/>
-    <mergeCell ref="F46:I48"/>
-    <mergeCell ref="B49:E51"/>
-    <mergeCell ref="F49:I51"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:E39"/>
-    <mergeCell ref="F37:I39"/>
-    <mergeCell ref="B40:E42"/>
-    <mergeCell ref="F40:I42"/>
+  <mergeCells count="80">
+    <mergeCell ref="C28:F30"/>
+    <mergeCell ref="G28:J30"/>
+    <mergeCell ref="K28:N30"/>
+    <mergeCell ref="O28:R30"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="G22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="O22:R24"/>
+    <mergeCell ref="C25:F27"/>
+    <mergeCell ref="G25:J27"/>
+    <mergeCell ref="K25:N27"/>
+    <mergeCell ref="O25:R27"/>
+    <mergeCell ref="U16:X18"/>
+    <mergeCell ref="Y16:AB18"/>
+    <mergeCell ref="AC16:AF18"/>
+    <mergeCell ref="AG16:AJ18"/>
+    <mergeCell ref="U19:X21"/>
+    <mergeCell ref="Y19:AB21"/>
+    <mergeCell ref="AC19:AF21"/>
+    <mergeCell ref="AG19:AJ21"/>
+    <mergeCell ref="AG10:AJ12"/>
+    <mergeCell ref="U13:X15"/>
+    <mergeCell ref="Y13:AB15"/>
+    <mergeCell ref="AC13:AF15"/>
+    <mergeCell ref="AG13:AJ15"/>
+    <mergeCell ref="U2:AJ2"/>
+    <mergeCell ref="U3:AB3"/>
+    <mergeCell ref="AC3:AJ3"/>
+    <mergeCell ref="U4:X6"/>
+    <mergeCell ref="Y4:AB6"/>
+    <mergeCell ref="AC4:AF6"/>
+    <mergeCell ref="AG4:AJ6"/>
+    <mergeCell ref="K13:N15"/>
+    <mergeCell ref="O13:R15"/>
+    <mergeCell ref="K16:N18"/>
+    <mergeCell ref="O16:R18"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C4:F6"/>
+    <mergeCell ref="G4:J6"/>
+    <mergeCell ref="Y10:AB12"/>
+    <mergeCell ref="K3:R3"/>
+    <mergeCell ref="K4:N6"/>
+    <mergeCell ref="O4:R6"/>
+    <mergeCell ref="K7:N9"/>
+    <mergeCell ref="O7:R9"/>
+    <mergeCell ref="U7:X9"/>
+    <mergeCell ref="Y7:AB9"/>
+    <mergeCell ref="K10:N12"/>
+    <mergeCell ref="O10:R12"/>
     <mergeCell ref="AC7:AF9"/>
     <mergeCell ref="AG7:AJ9"/>
     <mergeCell ref="AC10:AF12"/>
@@ -2479,56 +2680,20 @@
     <mergeCell ref="K19:N21"/>
     <mergeCell ref="O19:R21"/>
     <mergeCell ref="U10:X12"/>
-    <mergeCell ref="Y10:AB12"/>
-    <mergeCell ref="K3:R3"/>
-    <mergeCell ref="K4:N6"/>
-    <mergeCell ref="O4:R6"/>
-    <mergeCell ref="K7:N9"/>
-    <mergeCell ref="O7:R9"/>
-    <mergeCell ref="U7:X9"/>
-    <mergeCell ref="Y7:AB9"/>
-    <mergeCell ref="K10:N12"/>
-    <mergeCell ref="O10:R12"/>
-    <mergeCell ref="K13:N15"/>
-    <mergeCell ref="O13:R15"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="O16:R18"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="U2:AJ2"/>
-    <mergeCell ref="U3:AB3"/>
-    <mergeCell ref="AC3:AJ3"/>
-    <mergeCell ref="U4:X6"/>
-    <mergeCell ref="Y4:AB6"/>
-    <mergeCell ref="AC4:AF6"/>
-    <mergeCell ref="AG4:AJ6"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:F6"/>
-    <mergeCell ref="G4:J6"/>
-    <mergeCell ref="AG10:AJ12"/>
-    <mergeCell ref="U13:X15"/>
-    <mergeCell ref="Y13:AB15"/>
-    <mergeCell ref="AC13:AF15"/>
-    <mergeCell ref="AG13:AJ15"/>
-    <mergeCell ref="U16:X18"/>
-    <mergeCell ref="Y16:AB18"/>
-    <mergeCell ref="AC16:AF18"/>
-    <mergeCell ref="AG16:AJ18"/>
-    <mergeCell ref="U19:X21"/>
-    <mergeCell ref="Y19:AB21"/>
-    <mergeCell ref="AC19:AF21"/>
-    <mergeCell ref="AG19:AJ21"/>
-    <mergeCell ref="C28:F30"/>
-    <mergeCell ref="G28:J30"/>
-    <mergeCell ref="K28:N30"/>
-    <mergeCell ref="O28:R30"/>
-    <mergeCell ref="C22:F24"/>
-    <mergeCell ref="G22:J24"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="O22:R24"/>
-    <mergeCell ref="C25:F27"/>
-    <mergeCell ref="G25:J27"/>
-    <mergeCell ref="K25:N27"/>
-    <mergeCell ref="O25:R27"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B40:I42"/>
+    <mergeCell ref="B37:I39"/>
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="B49:I51"/>
+    <mergeCell ref="B43:I45"/>
+    <mergeCell ref="B61:E63"/>
+    <mergeCell ref="F61:I63"/>
+    <mergeCell ref="B52:E54"/>
+    <mergeCell ref="F52:I54"/>
+    <mergeCell ref="B55:E57"/>
+    <mergeCell ref="F55:I57"/>
+    <mergeCell ref="B58:E60"/>
+    <mergeCell ref="F58:I60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
